--- a/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4873865E-F599-41BD-B5D3-F07D44567833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66584-8B4F-442E-A8A9-7D8EBB765A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -101,9 +101,6 @@
   <si>
     <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
   </si>
   <si>
     <t>PROJECT NAME</t>
@@ -464,6 +461,10 @@
   </si>
   <si>
     <t>UUID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,6 +853,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,9 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1186,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="104" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1210,129 +1211,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="C4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
+      <c r="C5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1340,7 +1341,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="N7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -1366,16 +1367,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="str">
@@ -1390,7 +1391,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1407,13 +1408,13 @@
         <v>DROP TABLE dbo.PAY_INFO</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1423,7 +1424,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1438,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1456,13 +1457,13 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N15" s="37"/>
     </row>
@@ -1471,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1484,23 +1485,23 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1508,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -1521,23 +1522,23 @@
         <v>7</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="37"/>
       <c r="N17" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1545,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>13</v>
@@ -1558,23 +1559,23 @@
         <v>7</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="37"/>
       <c r="N18" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1582,7 +1583,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
@@ -1595,23 +1596,23 @@
         <v>7</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" s="37"/>
       <c r="N19" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1619,36 +1620,36 @@
         <v>6</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="37"/>
       <c r="N20" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1656,10 +1657,10 @@
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
@@ -1672,12 +1673,12 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K21" s="13"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1685,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
@@ -1701,12 +1702,12 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K22" s="13"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,7 +1739,7 @@
       <c r="K24" s="10"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,7 +1771,7 @@
       <c r="K26" s="13"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1787,7 +1788,7 @@
       <c r="K27" s="12"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1819,7 +1820,7 @@
       <c r="K29" s="13"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,12 +1836,12 @@
       <c r="J31" s="4"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1852,12 +1853,12 @@
       <c r="J32" s="4"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>15</v>
@@ -1869,12 +1870,12 @@
       <c r="J33" s="4"/>
       <c r="M33" s="37"/>
       <c r="N33" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
@@ -1882,17 +1883,17 @@
       <c r="J34" s="4"/>
       <c r="M34" s="37"/>
       <c r="N34" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J35" s="4"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1994,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -2016,29 +2017,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="46" t="str">
+        <v>17</v>
+      </c>
+      <c r="C2" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
         <v>EnClick</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
@@ -2046,17 +2047,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="46" t="str">
+        <v>19</v>
+      </c>
+      <c r="C3" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
         <v>ENCLICK</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$3</f>
@@ -2064,17 +2065,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="str">
+      <c r="C4" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
@@ -2082,40 +2083,40 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="46" t="str">
+      <c r="C5" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$5</f>
         <v>결제정보</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="str">
+      <c r="C6" s="47" t="str">
         <f>'테스트 테이블 명세서'!$C$6</f>
         <v>결제에 대한 정보가 담긴 테이블</v>
       </c>
-      <c r="D6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2123,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2140,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2154,13 +2155,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2168,37 +2169,37 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>104</v>
+        <v>97</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2215,24 +2216,24 @@
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_PAY_COMP_TO_PAY_INFO_1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2249,20 +2250,20 @@
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="25" t="str">
         <f>C9</f>
         <v>PAY_COMP</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="30"/>
     </row>
@@ -2280,7 +2281,7 @@
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -2289,24 +2290,24 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C16&amp;"_TO_"&amp;C24&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2323,20 +2324,20 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="25" t="str">
         <f>C10</f>
         <v>USER</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="30"/>
     </row>
@@ -2354,7 +2355,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -2363,21 +2364,21 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C23&amp;"_TO_"&amp;C31&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
@@ -2394,20 +2395,20 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="25" t="str">
         <f>C11</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" s="30"/>
     </row>
@@ -2425,7 +2426,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -2434,21 +2435,21 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E38" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C30&amp;"_TO_"&amp;C38&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -2465,20 +2466,20 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="30"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="25" t="str">
         <f>C12</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="30"/>
     </row>
@@ -2496,7 +2497,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -2505,21 +2506,21 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E45" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C37&amp;"_TO_"&amp;C45&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
@@ -2536,20 +2537,20 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="30"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="25" t="str">
         <f>C13</f>
         <v>ORDER_MST</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="30"/>
     </row>
@@ -2567,7 +2568,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="32"/>
       <c r="D50" s="32"/>

--- a/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD66584-8B4F-442E-A8A9-7D8EBB765A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030F58C-D041-470B-BFE5-032C58E23607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="106">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,15 +452,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEST_APAY_SEQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UUID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,7 +1184,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1442,7 +1438,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1460,7 +1456,7 @@
         <v>81</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M15" s="37" t="s">
         <v>62</v>
@@ -1528,7 +1524,7 @@
         <v>90</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>83</v>
@@ -1565,7 +1561,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>84</v>
@@ -1602,7 +1598,7 @@
         <v>89</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>85</v>
@@ -1660,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
@@ -1689,7 +1685,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>
@@ -1841,7 +1837,7 @@
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>15</v>
@@ -1924,7 +1920,7 @@
     </row>
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
-        <f t="shared" ref="B41:B46" si="0">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
+        <f t="shared" ref="B41:B47" si="0">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'결제회사 코드' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'COMP_CD' </v>
       </c>
       <c r="J41" s="4"/>
@@ -1951,9 +1947,9 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="e">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp;#REF! &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B20 &amp; "' "</f>
-        <v>#REF!</v>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'주문상세 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'ORDER_MST_UUID' </v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -1966,8 +1962,8 @@
     </row>
     <row r="47" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="str">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J20 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B22 &amp; "' "</f>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'주문상세 UUID' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'PAY_DT' </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'결제일시' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'PAY_DT' </v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2161,7 +2157,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2175,7 +2171,7 @@
         <v>89</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2187,7 +2183,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">

--- a/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6030F58C-D041-470B-BFE5-032C58E23607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A96B20D-F393-4EB1-9A5E-75C2EC900D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32730" yWindow="1005" windowWidth="21600" windowHeight="11295" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -456,11 +456,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1438,7 @@
         <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1</v>

--- a/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
   <si>
     <t>테이블 명세서</t>
   </si>
@@ -248,13 +248,25 @@
     <t xml:space="preserve">   GROUP BY f.name, OBJECT_NAME(f.parent_object_id)</t>
   </si>
   <si>
-    <t>ACCOUNT_NO</t>
+    <t>PAY_ACCOUNT_NO</t>
   </si>
   <si>
     <t>PAY_METHOD</t>
   </si>
   <si>
-    <t>계좌번호</t>
+    <t>ACCOUNT_NO</t>
+  </si>
+  <si>
+    <t>결제계좌번호</t>
+  </si>
+  <si>
+    <t>CALC_ACCOUNT_NO</t>
+  </si>
+  <si>
+    <t>PAY_CALC_ACCOUNT</t>
+  </si>
+  <si>
+    <t>정산계좌번호</t>
   </si>
   <si>
     <t>OPEN cursor1</t>
@@ -1890,10 +1902,10 @@
         <v>79</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" s="30" t="s">
         <v>50</v>
@@ -1915,21 +1927,41 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="F24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="26"/>
       <c r="N24" s="26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1987,7 +2019,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="26"/>
       <c r="N26" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2017,7 +2049,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="26"/>
       <c r="N27" s="26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2075,7 +2107,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -2136,7 +2168,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="26"/>
       <c r="N31" s="26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -2158,7 +2190,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="str">
         <f t="shared" ref="E32:E33" si="1">IF(C33&lt;&gt;"",",","")</f>
@@ -2173,7 +2205,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -2195,7 +2227,7 @@
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2210,7 +2242,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="26"/>
       <c r="N33" s="35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -2232,7 +2264,7 @@
         <v>52</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2244,7 +2276,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="26"/>
       <c r="N34" s="35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -2262,7 +2294,7 @@
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2276,7 +2308,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="26"/>
       <c r="N35" s="26" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2294,7 +2326,7 @@
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2660,7 +2692,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'계좌번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'ACCOUNT_NO' </v>
+        <v>EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'결제계좌번호' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_INFO', @level2type=N'COLUMN',@level2name=N'PAY_ACCOUNT_NO' </v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -29383,7 +29415,7 @@
   <sheetData>
     <row r="1" ht="27.75" customHeight="1">
       <c r="A1" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -29591,13 +29623,13 @@
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -29639,7 +29671,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -29845,7 +29877,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -29872,9 +29904,15 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="39"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="B15" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -29929,25 +29967,25 @@
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C17" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E17" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_PAY_COMP_TO_PAY_INFO_1</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -30005,7 +30043,7 @@
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -30035,14 +30073,14 @@
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C20" s="39" t="str">
         <f>C9</f>
         <v>PAY_COMP</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="47"/>
@@ -30104,7 +30142,7 @@
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
@@ -30162,25 +30200,25 @@
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C24" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E24" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C16&amp;"_TO_"&amp;C24&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -30238,7 +30276,7 @@
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -30268,14 +30306,14 @@
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C27" s="39" t="str">
         <f>C10</f>
         <v>USER</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="47"/>
@@ -30337,7 +30375,7 @@
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29" s="50"/>
       <c r="D29" s="50"/>
@@ -30395,21 +30433,21 @@
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E31" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C23&amp;"_TO_"&amp;C31&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -30469,7 +30507,7 @@
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -30499,14 +30537,14 @@
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C34" s="39" t="str">
         <f>C11</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="47"/>
@@ -30568,7 +30606,7 @@
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="50"/>
@@ -30626,21 +30664,21 @@
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C38" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E38" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C30&amp;"_TO_"&amp;C38&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -30700,7 +30738,7 @@
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -30730,14 +30768,14 @@
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C41" s="39" t="str">
         <f>C12</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="47"/>
@@ -30799,7 +30837,7 @@
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="50"/>
@@ -30857,21 +30895,21 @@
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C45" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E45" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C37&amp;"_TO_"&amp;C45&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -30931,7 +30969,7 @@
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -30961,14 +30999,14 @@
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C48" s="39" t="str">
         <f>C13</f>
         <v>ORDER_MST</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="47"/>
@@ -31030,7 +31068,7 @@
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C50" s="50"/>
       <c r="D50" s="50"/>
@@ -31088,21 +31126,21 @@
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="42" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" s="43" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E52" s="44" t="str">
         <f>"FK"&amp;"_"&amp;C44&amp;"_TO_"&amp;C52&amp;"_1"</f>
         <v>FK__TO_PAY_INFO_1</v>
       </c>
       <c r="F52" s="45" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -31130,7 +31168,7 @@
       <c r="B53" s="46"/>
       <c r="C53" s="34" t="str">
         <f>B14</f>
-        <v>ACCOUNT_NO</v>
+        <v>PAY_ACCOUNT_NO</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>IF(C54&lt;&gt;"",",","")</f>
@@ -31162,7 +31200,7 @@
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -31192,14 +31230,14 @@
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C55" s="39" t="str">
         <f>C14</f>
         <v>PAY_METHOD</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="47"/>
@@ -31261,7 +31299,7 @@
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C57" s="50"/>
       <c r="D57" s="50"/>
@@ -31318,11 +31356,23 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="B59" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="43" t="str">
+        <f>'테스트 테이블 명세서'!$C$4</f>
+        <v>PAY_INFO</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="44" t="str">
+        <f>"FK"&amp;"_"&amp;C51&amp;"_TO_"&amp;C59&amp;"_1"</f>
+        <v>FK__TO_PAY_INFO_1</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -31346,11 +31396,17 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="34" t="str">
+        <f>B15</f>
+        <v>CALC_ACCOUNT_NO</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f>IF(C61&lt;&gt;"",",","")</f>
+        <v/>
+      </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -31374,11 +31430,13 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="B61" s="46" t="s">
+        <v>106</v>
+      </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -31402,11 +31460,18 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="39" t="str">
+        <f>C15</f>
+        <v>PAY_CALC_ACCOUNT</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -31430,11 +31495,17 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="48" t="str">
+        <f>D15</f>
+        <v>ACCOUNT_NO</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f>IF(C64&lt;&gt;"",",","")</f>
+        <v/>
+      </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -31458,11 +31529,13 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="B64" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>

--- a/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_INFO.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>테이블 명세서</t>
   </si>
@@ -191,7 +191,7 @@
     <t>FK</t>
   </si>
   <si>
-    <t>COMMON_CODE</t>
+    <t>PAY_METHOD</t>
   </si>
   <si>
     <t>COMM_CD</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>PAY_RESU_DVCD</t>
+  </si>
+  <si>
+    <t>COMMON_CODE</t>
   </si>
   <si>
     <t>결제결과 구분코드</t>
@@ -249,9 +252,6 @@
   </si>
   <si>
     <t>PAY_ACCOUNT_NO</t>
-  </si>
-  <si>
-    <t>PAY_METHOD</t>
   </si>
   <si>
     <t>ACCOUNT_NO</t>
@@ -618,7 +618,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -701,13 +701,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -741,6 +741,15 @@
     </xf>
     <xf quotePrefix="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf quotePrefix="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1664,7 +1673,7 @@
       <c r="G18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="27" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -1715,13 +1724,13 @@
         <v>58</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19" s="25" t="s">
         <v>50</v>
@@ -1729,7 +1738,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="26"/>
       <c r="N19" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1749,13 +1758,13 @@
         <v>6.0</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22" t="s">
@@ -1765,13 +1774,13 @@
         <v>58</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K20" s="25" t="s">
         <v>50</v>
@@ -1779,7 +1788,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="26"/>
       <c r="N20" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1799,7 +1808,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>38</v>
@@ -1815,13 +1824,13 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" s="20"/>
       <c r="L21" s="3"/>
       <c r="M21" s="26"/>
       <c r="N21" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1841,10 +1850,10 @@
         <v>8.0</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>39</v>
@@ -1857,13 +1866,13 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" s="20"/>
       <c r="L22" s="3"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1879,29 +1888,29 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="27">
+      <c r="A23" s="28">
         <v>9.0</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>78</v>
+      <c r="B23" s="29" t="s">
+        <v>79</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="21"/>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="29" t="s">
-        <v>79</v>
+      <c r="H23" s="27" t="s">
+        <v>59</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="27" t="s">
         <v>80</v>
       </c>
       <c r="J23" s="30" t="s">
@@ -1927,29 +1936,29 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="27">
+      <c r="A24" s="28">
         <v>10.0</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="I24" s="27" t="s">
         <v>80</v>
       </c>
       <c r="J24" s="30" t="s">
@@ -29405,8 +29414,8 @@
     <col customWidth="1" min="1" max="1" width="6.29"/>
     <col customWidth="1" min="2" max="2" width="15.57"/>
     <col customWidth="1" min="3" max="3" width="16.43"/>
-    <col customWidth="1" min="4" max="4" width="15.71"/>
-    <col customWidth="1" min="5" max="5" width="17.86"/>
+    <col customWidth="1" min="4" max="4" width="17.29"/>
+    <col customWidth="1" min="5" max="5" width="42.43"/>
     <col customWidth="1" min="6" max="6" width="14.29"/>
     <col customWidth="1" min="7" max="7" width="3.86"/>
     <col customWidth="1" min="8" max="8" width="9.0"/>
@@ -29771,10 +29780,10 @@
       <c r="B11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>59</v>
+      <c r="C11" s="41" t="s">
+        <v>64</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="42" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="3"/>
@@ -29801,12 +29810,14 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="39"/>
+      <c r="A12" s="43">
+        <v>4.0</v>
+      </c>
       <c r="B12" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>60</v>
@@ -29835,15 +29846,17 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="21" t="s">
-        <v>66</v>
+      <c r="A13" s="43">
+        <v>5.0</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>68</v>
+      <c r="B13" s="44" t="s">
+        <v>79</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>66</v>
+      <c r="C13" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>80</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -29869,14 +29882,16 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41" t="s">
-        <v>78</v>
+      <c r="A14" s="43">
+        <v>6.0</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>79</v>
+      <c r="B14" s="44" t="s">
+        <v>82</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="44" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="3"/>
@@ -29903,16 +29918,10 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>80</v>
-      </c>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -29966,21 +29975,21 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="43" t="str">
+      <c r="C17" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="44" t="str">
+      <c r="E17" s="47" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_PAY_COMP_TO_PAY_INFO_1</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="3"/>
@@ -30008,7 +30017,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="34" t="str">
         <f>B9</f>
         <v>COMP_CD</v>
@@ -30018,7 +30027,7 @@
         <v/>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -30042,13 +30051,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="47"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -30072,7 +30081,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="39" t="str">
@@ -30083,7 +30092,7 @@
         <v>108</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -30107,8 +30116,8 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48" t="str">
+      <c r="B21" s="49"/>
+      <c r="C21" s="51" t="str">
         <f>D9</f>
         <v>COMP_CD</v>
       </c>
@@ -30117,7 +30126,7 @@
         <v/>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="47"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -30141,13 +30150,13 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -30199,21 +30208,21 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="43" t="str">
+      <c r="C24" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C16&amp;"_TO_"&amp;C24&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
+      <c r="E24" s="47" t="str">
+        <f>"FK"&amp;"_"&amp;C10&amp;"_TO_"&amp;C24&amp;"_1"</f>
+        <v>FK_USER_TO_PAY_INFO_1</v>
       </c>
-      <c r="F24" s="45" t="s">
+      <c r="F24" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G24" s="3"/>
@@ -30241,7 +30250,7 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="34" t="str">
         <f>B10</f>
         <v>PAYER_ID</v>
@@ -30251,7 +30260,7 @@
         <v/>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="50"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -30275,13 +30284,13 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -30305,7 +30314,7 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C27" s="39" t="str">
@@ -30316,7 +30325,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -30340,8 +30349,8 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="48" t="str">
+      <c r="B28" s="49"/>
+      <c r="C28" s="51" t="str">
         <f>D10</f>
         <v>USER_ID</v>
       </c>
@@ -30350,7 +30359,7 @@
         <v/>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -30374,13 +30383,13 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -30432,21 +30441,21 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="43" t="str">
+      <c r="C31" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C23&amp;"_TO_"&amp;C31&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
+      <c r="E31" s="47" t="str">
+        <f>"FK"&amp;"_"&amp;C11&amp;"_TO_"&amp;C31&amp;"_1"</f>
+        <v>FK_COMMON_CODE_TO_PAY_INFO_1</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G31" s="3"/>
@@ -30472,7 +30481,7 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="46"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="34" t="str">
         <f>B11</f>
         <v>PAY_DVCD</v>
@@ -30482,7 +30491,7 @@
         <v/>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="47"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -30506,13 +30515,13 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="47"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -30536,7 +30545,7 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C34" s="39" t="str">
@@ -30547,7 +30556,7 @@
         <v>108</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="47"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -30571,8 +30580,8 @@
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="48" t="str">
+      <c r="B35" s="49"/>
+      <c r="C35" s="51" t="str">
         <f>D11</f>
         <v>COMM_CD</v>
       </c>
@@ -30581,7 +30590,7 @@
         <v/>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="47"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -30605,13 +30614,13 @@
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -30663,21 +30672,21 @@
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="43" t="str">
+      <c r="C38" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C30&amp;"_TO_"&amp;C38&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
+      <c r="E38" s="47" t="str">
+        <f>"FK"&amp;"_"&amp;C12&amp;"_TO_"&amp;C38&amp;"_2"</f>
+        <v>FK_COMMON_CODE_TO_PAY_INFO_2</v>
       </c>
-      <c r="F38" s="45" t="s">
+      <c r="F38" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G38" s="3"/>
@@ -30703,7 +30712,7 @@
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="34" t="str">
         <f>B12</f>
         <v>PAY_RESU_DVCD</v>
@@ -30713,7 +30722,7 @@
         <v/>
       </c>
       <c r="E39" s="3"/>
-      <c r="F39" s="47"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -30737,13 +30746,13 @@
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="47"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -30767,7 +30776,7 @@
     </row>
     <row r="41" ht="12.0" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C41" s="39" t="str">
@@ -30778,7 +30787,7 @@
         <v>108</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="47"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -30802,8 +30811,8 @@
     </row>
     <row r="42" ht="12.0" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="48" t="str">
+      <c r="B42" s="49"/>
+      <c r="C42" s="51" t="str">
         <f>D12</f>
         <v>COMM_CD</v>
       </c>
@@ -30812,7 +30821,7 @@
         <v/>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="47"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -30836,13 +30845,13 @@
     </row>
     <row r="43" ht="12.0" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -30894,21 +30903,21 @@
     </row>
     <row r="45" ht="12.0" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="43" t="str">
+      <c r="C45" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C37&amp;"_TO_"&amp;C45&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
+      <c r="E45" s="47" t="str">
+        <f>"FK"&amp;"_"&amp;C14&amp;"_TO_"&amp;C45&amp;"_3"</f>
+        <v>FK_PAY_CALC_ACCOUNT_TO_PAY_INFO_3</v>
       </c>
-      <c r="F45" s="45" t="s">
+      <c r="F45" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="3"/>
@@ -30934,17 +30943,17 @@
     </row>
     <row r="46" ht="12.0" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="34" t="str">
         <f>B13</f>
-        <v>ORDER_MST_UUID</v>
+        <v>PAY_ACCOUNT_NO</v>
       </c>
       <c r="D46" s="3" t="str">
         <f>IF(C47&lt;&gt;"",",","")</f>
         <v/>
       </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="47"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -30968,13 +30977,13 @@
     </row>
     <row r="47" ht="12.0" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="47"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -30998,18 +31007,18 @@
     </row>
     <row r="48" ht="12.0" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C48" s="39" t="str">
         <f>C13</f>
-        <v>ORDER_MST</v>
+        <v>PAY_METHOD</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -31033,17 +31042,17 @@
     </row>
     <row r="49" ht="12.0" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48" t="str">
+      <c r="B49" s="49"/>
+      <c r="C49" s="51" t="str">
         <f>D13</f>
-        <v>ORDER_MST_UUID</v>
+        <v>ACCOUNT_NO</v>
       </c>
       <c r="D49" s="3" t="str">
         <f>IF(C50&lt;&gt;"",",","")</f>
         <v/>
       </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="47"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31067,13 +31076,13 @@
     </row>
     <row r="50" ht="12.0" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -31125,21 +31134,21 @@
     </row>
     <row r="52" ht="12.0" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="43" t="str">
+      <c r="C52" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_INFO</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C44&amp;"_TO_"&amp;C52&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
+      <c r="E52" s="47" t="str">
+        <f>"FK"&amp;"_"&amp;C21&amp;"_TO_"&amp;C52&amp;"_3"</f>
+        <v>FK_COMP_CD_TO_PAY_INFO_3</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="48" t="s">
         <v>104</v>
       </c>
       <c r="G52" s="3"/>
@@ -31165,17 +31174,17 @@
     </row>
     <row r="53" ht="12.0" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="46"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="34" t="str">
         <f>B14</f>
-        <v>PAY_ACCOUNT_NO</v>
+        <v>CALC_ACCOUNT_NO</v>
       </c>
       <c r="D53" s="3" t="str">
         <f>IF(C54&lt;&gt;"",",","")</f>
         <v/>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="47"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -31199,13 +31208,13 @@
     </row>
     <row r="54" ht="12.0" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="47"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -31229,18 +31238,18 @@
     </row>
     <row r="55" ht="12.0" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C55" s="39" t="str">
         <f>C14</f>
-        <v>PAY_METHOD</v>
+        <v>PAY_CALC_ACCOUNT</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>108</v>
       </c>
       <c r="E55" s="3"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -31264,8 +31273,8 @@
     </row>
     <row r="56" ht="12.0" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48" t="str">
+      <c r="B56" s="49"/>
+      <c r="C56" s="51" t="str">
         <f>D14</f>
         <v>ACCOUNT_NO</v>
       </c>
@@ -31274,7 +31283,7 @@
         <v/>
       </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="47"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -31298,13 +31307,13 @@
     </row>
     <row r="57" ht="12.0" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -31356,23 +31365,11 @@
     </row>
     <row r="59" ht="12.0" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" s="43" t="str">
-        <f>'테스트 테이블 명세서'!$C$4</f>
-        <v>PAY_INFO</v>
-      </c>
-      <c r="D59" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="44" t="str">
-        <f>"FK"&amp;"_"&amp;C51&amp;"_TO_"&amp;C59&amp;"_1"</f>
-        <v>FK__TO_PAY_INFO_1</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>104</v>
-      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -31396,17 +31393,11 @@
     </row>
     <row r="60" ht="12.0" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="34" t="str">
-        <f>B15</f>
-        <v>CALC_ACCOUNT_NO</v>
-      </c>
-      <c r="D60" s="3" t="str">
-        <f>IF(C61&lt;&gt;"",",","")</f>
-        <v/>
-      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="47"/>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -31430,13 +31421,11 @@
     </row>
     <row r="61" ht="12.0" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="46" t="s">
-        <v>106</v>
-      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="47"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -31460,18 +31449,11 @@
     </row>
     <row r="62" ht="12.0" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="39" t="str">
-        <f>C15</f>
-        <v>PAY_CALC_ACCOUNT</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="47"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -31495,17 +31477,11 @@
     </row>
     <row r="63" ht="12.0" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="48" t="str">
-        <f>D15</f>
-        <v>ACCOUNT_NO</v>
-      </c>
-      <c r="D63" s="3" t="str">
-        <f>IF(C64&lt;&gt;"",",","")</f>
-        <v/>
-      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="47"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -31529,13 +31505,11 @@
     </row>
     <row r="64" ht="12.0" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -57569,202 +57543,6 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" ht="12.0" customHeight="1">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-    </row>
-    <row r="995" ht="12.0" customHeight="1">
-      <c r="A995" s="3"/>
-      <c r="B995" s="3"/>
-      <c r="C995" s="3"/>
-      <c r="D995" s="3"/>
-      <c r="E995" s="3"/>
-      <c r="F995" s="3"/>
-      <c r="G995" s="3"/>
-      <c r="H995" s="3"/>
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="3"/>
-      <c r="L995" s="3"/>
-      <c r="M995" s="3"/>
-      <c r="N995" s="3"/>
-      <c r="O995" s="3"/>
-      <c r="P995" s="3"/>
-      <c r="Q995" s="3"/>
-      <c r="R995" s="3"/>
-      <c r="S995" s="3"/>
-      <c r="T995" s="3"/>
-      <c r="U995" s="3"/>
-      <c r="V995" s="3"/>
-      <c r="W995" s="3"/>
-      <c r="X995" s="3"/>
-      <c r="Y995" s="3"/>
-      <c r="Z995" s="3"/>
-    </row>
-    <row r="996" ht="12.0" customHeight="1">
-      <c r="A996" s="3"/>
-      <c r="B996" s="3"/>
-      <c r="C996" s="3"/>
-      <c r="D996" s="3"/>
-      <c r="E996" s="3"/>
-      <c r="F996" s="3"/>
-      <c r="G996" s="3"/>
-      <c r="H996" s="3"/>
-      <c r="I996" s="3"/>
-      <c r="J996" s="3"/>
-      <c r="K996" s="3"/>
-      <c r="L996" s="3"/>
-      <c r="M996" s="3"/>
-      <c r="N996" s="3"/>
-      <c r="O996" s="3"/>
-      <c r="P996" s="3"/>
-      <c r="Q996" s="3"/>
-      <c r="R996" s="3"/>
-      <c r="S996" s="3"/>
-      <c r="T996" s="3"/>
-      <c r="U996" s="3"/>
-      <c r="V996" s="3"/>
-      <c r="W996" s="3"/>
-      <c r="X996" s="3"/>
-      <c r="Y996" s="3"/>
-      <c r="Z996" s="3"/>
-    </row>
-    <row r="997" ht="12.0" customHeight="1">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="3"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-    </row>
-    <row r="998" ht="12.0" customHeight="1">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
-    <row r="999" ht="12.0" customHeight="1">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-    </row>
-    <row r="1000" ht="12.0" customHeight="1">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
